--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,37 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0A99D1-2B03-4476-BA72-CDDF8E714E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE11FD11-FD7D-42E1-A664-02D6110C90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="810" windowWidth="26775" windowHeight="15405" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="3555" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId2"/>
+    <sheet name="2024.02.27" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +37,30 @@
   </si>
   <si>
     <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제 제안서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">요구사항 정의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 다이어그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -202,11 +217,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,6 +283,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -747,48 +781,64 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="6"/>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE11FD11-FD7D-42E1-A664-02D6110C90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF770CCB-F75E-4E95-A62D-B8137ECDB34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3555" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="2024.02.27" sheetId="22" r:id="rId2"/>
+    <sheet name="2024.02.28" sheetId="23" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
@@ -839,6 +840,145 @@
       <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDA7BA-E8A7-424B-9081-99597C1CB688}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF770CCB-F75E-4E95-A62D-B8137ECDB34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB0A91-D7A1-41FD-9284-84EBF8A2C9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="2024.02.27" sheetId="22" r:id="rId2"/>
     <sheet name="2024.02.28" sheetId="23" r:id="rId3"/>
+    <sheet name="2024.02.29" sheetId="24" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +63,18 @@
   </si>
   <si>
     <t>유스케이스 다이어그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 다이어그램 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDA7BA-E8A7-424B-9081-99597C1CB688}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
@@ -967,6 +980,149 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D797E3B6-B468-4932-9EFF-F372E81FA672}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB0A91-D7A1-41FD-9284-84EBF8A2C9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721FE633-F54E-4A3C-BE62-BCDABBC82680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="2024.02.27" sheetId="22" r:id="rId2"/>
     <sheet name="2024.02.28" sheetId="23" r:id="rId3"/>
     <sheet name="2024.02.29" sheetId="24" r:id="rId4"/>
+    <sheet name="2024.03.05" sheetId="25" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +76,14 @@
   </si>
   <si>
     <t>작업 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DB설계 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 과제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D797E3B6-B468-4932-9EFF-F372E81FA672}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1121,6 +1130,149 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760C520E-3C31-443D-ADBE-4B5E29B20CBF}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="11"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721FE633-F54E-4A3C-BE62-BCDABBC82680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D86D7-6691-4EF7-B66A-446B15B3A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2024.02.28" sheetId="23" r:id="rId3"/>
     <sheet name="2024.02.29" sheetId="24" r:id="rId4"/>
     <sheet name="2024.03.05" sheetId="25" r:id="rId5"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +85,14 @@
   </si>
   <si>
     <t>스프링 과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 과제(회원가입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 과제(공지사항)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1203,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760C520E-3C31-443D-ADBE-4B5E29B20CBF}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -1287,6 +1296,153 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20A29E-1581-468F-B1BD-85C1DA0A0EE2}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D86D7-6691-4EF7-B66A-446B15B3A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5389453C-4280-48B3-8438-93B7AE448F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="4110" windowWidth="17115" windowHeight="12285" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2024.02.29" sheetId="24" r:id="rId4"/>
     <sheet name="2024.03.05" sheetId="25" r:id="rId5"/>
     <sheet name="2024.03.06" sheetId="26" r:id="rId6"/>
+    <sheet name="2024.03.08" sheetId="27" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +94,10 @@
   </si>
   <si>
     <t>스프링 과제(공지사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 시큐리티, 필터 학습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,6 +1360,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20A29E-1581-468F-B1BD-85C1DA0A0EE2}">
   <dimension ref="B2:I9"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11705093-C24B-4840-B68E-51BEE76E29C1}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
@@ -1418,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1434,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5389453C-4280-48B3-8438-93B7AE448F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEAAD59-E07F-47F6-B3AD-91352249D64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="4110" windowWidth="17115" windowHeight="12285" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="2024.03.05" sheetId="25" r:id="rId5"/>
     <sheet name="2024.03.06" sheetId="26" r:id="rId6"/>
     <sheet name="2024.03.08" sheetId="27" r:id="rId7"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +99,10 @@
   </si>
   <si>
     <t>스프링 시큐리티, 필터 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계서 (로그인, 회원가입, 비밀번호 찾기, 비밀번호 변경)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1507,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11705093-C24B-4840-B68E-51BEE76E29C1}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
@@ -1595,6 +1600,149 @@
       <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384948B0-852E-47CA-8C8E-AA618FE50894}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEAAD59-E07F-47F6-B3AD-91352249D64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EC4801-0282-480B-A766-3BAFA8E4D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2024.03.06" sheetId="26" r:id="rId6"/>
     <sheet name="2024.03.08" sheetId="27" r:id="rId7"/>
     <sheet name="2024.03.11" sheetId="28" r:id="rId8"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="19">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +104,10 @@
   </si>
   <si>
     <t>화면설계서 (로그인, 회원가입, 비밀번호 찾기, 비밀번호 변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계서 (블로그 컴포넌트, 채팅)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1659,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384948B0-852E-47CA-8C8E-AA618FE50894}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
@@ -1723,6 +1728,149 @@
       </c>
       <c r="C5" s="13" t="s">
         <v>17</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA34E85B-1D22-423C-9A56-483E763F3C96}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EC4801-0282-480B-A766-3BAFA8E4D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD04505-4CA0-4CB4-9C38-407BD2BECFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="2024.03.08" sheetId="27" r:id="rId7"/>
     <sheet name="2024.03.11" sheetId="28" r:id="rId8"/>
     <sheet name="2024.03.12" sheetId="29" r:id="rId9"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +109,10 @@
   </si>
   <si>
     <t>화면설계서 (블로그 컴포넌트, 채팅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계서 (블로그보기와 등록은 라이브러리가 정해지면 작업)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,6 +799,145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4881CD28-6E55-4E41-B6B6-48FEF2909685}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
@@ -1807,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA34E85B-1D22-423C-9A56-483E763F3C96}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD04505-4CA0-4CB4-9C38-407BD2BECFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECDA0AB-5FFE-4E40-BA21-085367D47946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2024.03.11" sheetId="28" r:id="rId8"/>
     <sheet name="2024.03.12" sheetId="29" r:id="rId9"/>
     <sheet name="2024.03.13" sheetId="30" r:id="rId10"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +114,14 @@
   </si>
   <si>
     <t>화면설계서 (블로그보기와 등록은 라이브러리가 정해지면 작업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계서 디테일 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB설계 (ERMaster설계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4881CD28-6E55-4E41-B6B6-48FEF2909685}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -871,6 +880,149 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235340C-347B-4A59-94A3-0AC67D0BFBA7}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1952,7 +2104,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECDA0AB-5FFE-4E40-BA21-085367D47946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1FD6EB-2A28-4255-B3BC-4226A6245F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="2024.03.12" sheetId="29" r:id="rId9"/>
     <sheet name="2024.03.13" sheetId="30" r:id="rId10"/>
     <sheet name="2024.03.14" sheetId="31" r:id="rId11"/>
+    <sheet name="2024.03.17" sheetId="32" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +123,10 @@
   </si>
   <si>
     <t>DB설계 (ERMaster설계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB설계 (ERMaster설계) 1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235340C-347B-4A59-94A3-0AC67D0BFBA7}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1023,6 +1028,141 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A3E647-9F23-4125-A2F2-800E5C8D8D0A}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1FD6EB-2A28-4255-B3BC-4226A6245F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C07FD3-2AD7-44EF-A34F-6E6010960CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="2024.03.13" sheetId="30" r:id="rId10"/>
     <sheet name="2024.03.14" sheetId="31" r:id="rId11"/>
     <sheet name="2024.03.17" sheetId="32" r:id="rId12"/>
+    <sheet name="2024.03.18" sheetId="33" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +128,10 @@
   </si>
   <si>
     <t>DB설계 (ERMaster설계) 1차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토 타이핑(로그인,회원가입,비밀번호 찾기, 비밀번호 수정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +962,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1099,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A3E647-9F23-4125-A2F2-800E5C8D8D0A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1151,6 +1156,145 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="6"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4524EF71-284C-41A8-910B-BB062D1C3872}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C07FD3-2AD7-44EF-A34F-6E6010960CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318CFCCC-E02B-4136-8F83-9518ED427C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2024.03.14" sheetId="31" r:id="rId11"/>
     <sheet name="2024.03.17" sheetId="32" r:id="rId12"/>
     <sheet name="2024.03.18" sheetId="33" r:id="rId13"/>
+    <sheet name="2024.03.19" sheetId="34" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +133,10 @@
   </si>
   <si>
     <t>프로토 타이핑(로그인,회원가입,비밀번호 찾기, 비밀번호 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB설계 (sql 작성, ERMaster 1차)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1239,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4524EF71-284C-41A8-910B-BB062D1C3872}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
@@ -1287,6 +1292,145 @@
       </c>
       <c r="C4" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9078E433-D7A1-4AE2-9FA2-F063D02F7E17}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318CFCCC-E02B-4136-8F83-9518ED427C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3124EF87-D67D-41DF-BD33-91F319D617EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="2024.03.17" sheetId="32" r:id="rId12"/>
     <sheet name="2024.03.18" sheetId="33" r:id="rId13"/>
     <sheet name="2024.03.19" sheetId="34" r:id="rId14"/>
+    <sheet name="2024.03.20" sheetId="35" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +138,14 @@
   </si>
   <si>
     <t>DB설계 (sql 작성, ERMaster 1차)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 프로젝트 세팅(pom.xml, web.xml 등등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 시큐리티 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1383,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9078E433-D7A1-4AE2-9FA2-F063D02F7E17}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1451,6 +1460,149 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977A8A7-B1E4-4DC6-B9BC-015801D84FFD}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3124EF87-D67D-41DF-BD33-91F319D617EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB212D-F502-4D45-9D24-5DA439EE0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="2024.03.18" sheetId="33" r:id="rId13"/>
     <sheet name="2024.03.19" sheetId="34" r:id="rId14"/>
     <sheet name="2024.03.20" sheetId="35" r:id="rId15"/>
+    <sheet name="2024.03.21" sheetId="36" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +147,14 @@
   </si>
   <si>
     <t>스프링 시큐리티 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스프링 회원가입 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 시큐리티 인증,인가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1531,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977A8A7-B1E4-4DC6-B9BC-015801D84FFD}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1603,6 +1612,145 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A123FC2-5886-463C-8FFE-DC3039CF5DBD}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB212D-F502-4D45-9D24-5DA439EE0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE4812E-3EB2-4D2C-A159-626647BA7C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="2024.03.19" sheetId="34" r:id="rId14"/>
     <sheet name="2024.03.20" sheetId="35" r:id="rId15"/>
     <sheet name="2024.03.21" sheetId="36" r:id="rId16"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1683,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A123FC2-5886-463C-8FFE-DC3039CF5DBD}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1739,6 +1740,141 @@
       <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2566BCB1-BEBE-4BBB-9F67-CFAE9EDB12FB}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE4812E-3EB2-4D2C-A159-626647BA7C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC0B52-4C67-434E-9E8B-A9C2CEE49D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="2024.03.20" sheetId="35" r:id="rId15"/>
     <sheet name="2024.03.21" sheetId="36" r:id="rId16"/>
     <sheet name="2024.03.24" sheetId="37" r:id="rId17"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="31">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +157,14 @@
   </si>
   <si>
     <t>스프링 시큐리티 인증,인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 시큐리티 로그인, 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재설정 메일 발송</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1823,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2566BCB1-BEBE-4BBB-9F67-CFAE9EDB12FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
@@ -1875,6 +1884,145 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="6"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D8DF3E-B71D-4C7E-833B-8492336DC234}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC0B52-4C67-434E-9E8B-A9C2CEE49D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4606E4BA-4494-4726-B399-E8300F4782B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="2024.03.21" sheetId="36" r:id="rId16"/>
     <sheet name="2024.03.24" sheetId="37" r:id="rId17"/>
     <sheet name="2024.03.25" sheetId="38" r:id="rId18"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="32">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +166,10 @@
   </si>
   <si>
     <t>비밀번호 재설정 메일 발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원 관리 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1967,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D8DF3E-B71D-4C7E-833B-8492336DC234}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2015,6 +2020,145 @@
       </c>
       <c r="C4" s="13" t="s">
         <v>30</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3006C80E-27A5-4DC2-A172-A9DB8EFF0C01}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4606E4BA-4494-4726-B399-E8300F4782B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C2F2EE-6D54-4B53-A6A7-73B55FE6DECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="2024.03.24" sheetId="37" r:id="rId17"/>
     <sheet name="2024.03.25" sheetId="38" r:id="rId18"/>
     <sheet name="2024.03.26" sheetId="39" r:id="rId19"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="33">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +171,10 @@
   </si>
   <si>
     <t>사원 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원 관리 페이지(사원 등록)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2111,7 +2116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3006C80E-27A5-4DC2-A172-A9DB8EFF0C01}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -2393,6 +2398,145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CFDD38-4EE0-438C-9F99-31658A6971C2}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDA7BA-E8A7-424B-9081-99597C1CB688}">
   <dimension ref="B2:I9"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C2F2EE-6D54-4B53-A6A7-73B55FE6DECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4C776F-C846-42B0-BD34-C4D51E8714E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="2024.03.25" sheetId="38" r:id="rId18"/>
     <sheet name="2024.03.26" sheetId="39" r:id="rId19"/>
     <sheet name="2024.03.27" sheetId="40" r:id="rId20"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +176,10 @@
   </si>
   <si>
     <t>사원 관리 페이지(사원 등록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션 적용 완료 테스트 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2402,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CFDD38-4EE0-438C-9F99-31658A6971C2}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -2458,6 +2463,143 @@
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B7428D-556D-4D3A-95C4-7F330E92D8C5}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4C776F-C846-42B0-BD34-C4D51E8714E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC31FA7-8E67-445E-8148-F1ABB6570D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="2024.03.26" sheetId="39" r:id="rId19"/>
     <sheet name="2024.03.27" sheetId="40" r:id="rId20"/>
     <sheet name="2024.03.28" sheetId="41" r:id="rId21"/>
+    <sheet name="2024.03.31" sheetId="42" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="39">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +181,26 @@
   </si>
   <si>
     <t>트랜잭션 적용 완료 테스트 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지(인증번호 발송, 인증번호 확인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 필요, DB수정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사원등록 디테일 작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 체크, 재발송 기능 구현 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2546,7 +2567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B7428D-556D-4D3A-95C4-7F330E92D8C5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2625,6 +2646,159 @@
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB91CAC-D1BD-47DA-8E38-DBB8ACB9563A}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC31FA7-8E67-445E-8148-F1ABB6570D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BCC9AF-6E46-4D95-A6CC-CDA3D550B886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="2024.03.27" sheetId="40" r:id="rId20"/>
     <sheet name="2024.03.28" sheetId="41" r:id="rId21"/>
     <sheet name="2024.03.31" sheetId="42" r:id="rId22"/>
+    <sheet name="2024.04.01" sheetId="43" r:id="rId23"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="40">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +202,10 @@
   </si>
   <si>
     <t>오류 체크, 재발송 기능 구현 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큐리티 수정 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2704,7 +2709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB91CAC-D1BD-47DA-8E38-DBB8ACB9563A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -2799,6 +2804,147 @@
       <c r="I6" s="12" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C54B4F3-E3B2-4F49-AE7B-9EE97F12E7B7}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BCC9AF-6E46-4D95-A6CC-CDA3D550B886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17030736-FE82-46DE-BF82-BC1EB2ADB05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="2024.03.28" sheetId="41" r:id="rId21"/>
     <sheet name="2024.03.31" sheetId="42" r:id="rId22"/>
     <sheet name="2024.04.01" sheetId="43" r:id="rId23"/>
+    <sheet name="2024.04.02" sheetId="44" r:id="rId24"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +207,10 @@
   </si>
   <si>
     <t>시큐리티 수정 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원등록 수정, 탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2862,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C54B4F3-E3B2-4F49-AE7B-9EE97F12E7B7}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2919,6 +2924,147 @@
       <c r="G4" s="13"/>
       <c r="H4" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9426D8-3E39-4428-ADE5-EBD9F7CD737D}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="I4" s="11"/>
     </row>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17030736-FE82-46DE-BF82-BC1EB2ADB05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB56D41-2058-4A05-93E2-2C0D21503D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="2024.03.31" sheetId="42" r:id="rId22"/>
     <sheet name="2024.04.01" sheetId="43" r:id="rId23"/>
     <sheet name="2024.04.02" sheetId="44" r:id="rId24"/>
+    <sheet name="2024.04.03" sheetId="45" r:id="rId25"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="44">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +212,18 @@
   </si>
   <si>
     <t>사원등록 수정, 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원 프로필 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 재발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 정규식 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3008,7 +3021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9426D8-3E39-4428-ADE5-EBD9F7CD737D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3102,6 +3115,159 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F875A2-F3A3-4404-B26F-01C6EED92EFF}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB56D41-2058-4A05-93E2-2C0D21503D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9243CF2D-BD94-44BB-A458-A4282BC0B088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="2024.04.01" sheetId="43" r:id="rId23"/>
     <sheet name="2024.04.02" sheetId="44" r:id="rId24"/>
     <sheet name="2024.04.03" sheetId="45" r:id="rId25"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId26"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="49">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +225,26 @@
   </si>
   <si>
     <t>회원가입 정규식 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db에서 직접 인코딩 작업하는 방식으로 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json타입을 다루는데 어려움 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3162,7 +3183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F875A2-F3A3-4404-B26F-01C6EED92EFF}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
@@ -3268,6 +3289,157 @@
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1195A4-9C76-4B6E-9983-248E0DDAE658}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9243CF2D-BD94-44BB-A458-A4282BC0B088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927224BB-EA94-4B52-82A5-FAF61CD43090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="17" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="2024.04.02" sheetId="44" r:id="rId24"/>
     <sheet name="2024.04.03" sheetId="45" r:id="rId25"/>
     <sheet name="2024.04.04" sheetId="46" r:id="rId26"/>
+    <sheet name="2024.04.07" sheetId="47" r:id="rId27"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="50">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +246,10 @@
   </si>
   <si>
     <t>json타입을 다루는데 어려움 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드(완료) 테스트 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3336,7 +3341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1195A4-9C76-4B6E-9983-248E0DDAE658}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3429,6 +3434,143 @@
       <c r="I6" s="12" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFCE634-2E02-432F-8997-79C42427E93E}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927224BB-EA94-4B52-82A5-FAF61CD43090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E6BA8B-6309-4D94-9602-81C7CC1DD04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="17" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="18" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <sheet name="2024.04.03" sheetId="45" r:id="rId25"/>
     <sheet name="2024.04.04" sheetId="46" r:id="rId26"/>
     <sheet name="2024.04.07" sheetId="47" r:id="rId27"/>
+    <sheet name="2024.04.08" sheetId="48" r:id="rId28"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +251,10 @@
   </si>
   <si>
     <t>코드(완료) 테스트 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3492,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFCE634-2E02-432F-8997-79C42427E93E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3546,6 +3551,145 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="6"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B01F4C9-8B57-49AA-957E-69DDD9AEBBFD}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E6BA8B-6309-4D94-9602-81C7CC1DD04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610A8793-4DB8-40D2-B1F5-F54847BB8742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="18" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="2024.04.04" sheetId="46" r:id="rId26"/>
     <sheet name="2024.04.07" sheetId="47" r:id="rId27"/>
     <sheet name="2024.04.08" sheetId="48" r:id="rId28"/>
+    <sheet name="2024.04.11" sheetId="49" r:id="rId29"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="52">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +256,10 @@
   </si>
   <si>
     <t>채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹소켓 연결하면서 db에 저장하는데 문제 발견</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3634,7 +3639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B01F4C9-8B57-49AA-957E-69DDD9AEBBFD}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3690,6 +3695,143 @@
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8B3A16-F817-4680-8E76-4A420DCC412F}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610A8793-4DB8-40D2-B1F5-F54847BB8742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF078C8-28EA-49D9-B311-A8368CC2BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -41,7 +41,8 @@
     <sheet name="2024.04.04" sheetId="46" r:id="rId26"/>
     <sheet name="2024.04.07" sheetId="47" r:id="rId27"/>
     <sheet name="2024.04.08" sheetId="48" r:id="rId28"/>
-    <sheet name="2024.04.11" sheetId="49" r:id="rId29"/>
+    <sheet name="2024.04.10" sheetId="49" r:id="rId29"/>
+    <sheet name="2024.04.11" sheetId="50" r:id="rId30"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="55">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +261,18 @@
   </si>
   <si>
     <t>웹소켓 연결하면서 db에 저장하는데 문제 발견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 이동 고려중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3778,7 +3791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8B3A16-F817-4680-8E76-4A420DCC412F}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -4050,6 +4063,149 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C610BE1A-17C4-468F-A975-19A0F468321D}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D797E3B6-B468-4932-9EFF-F372E81FA672}">
   <dimension ref="B2:I9"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF078C8-28EA-49D9-B311-A8368CC2BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E5532-8D5A-4FCD-8151-109ADAADAB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <sheet name="2024.04.08" sheetId="48" r:id="rId28"/>
     <sheet name="2024.04.10" sheetId="49" r:id="rId29"/>
     <sheet name="2024.04.11" sheetId="50" r:id="rId30"/>
+    <sheet name="2024.04.12" sheetId="51" r:id="rId31"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="59">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +274,22 @@
   </si>
   <si>
     <t>작업 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 중 과 채팅 밖을 분기처리 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅과 함께 작업 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포파일 시연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일질라에 바이러스 때문에 고민 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4067,7 +4084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C610BE1A-17C4-468F-A975-19A0F468321D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -4140,6 +4157,155 @@
       <c r="G5" s="13"/>
       <c r="H5" s="6"/>
       <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EEC620-9C97-4D90-AD0D-800781D9C318}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E5532-8D5A-4FCD-8151-109ADAADAB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F3D472-43CE-4A4E-AC32-B0D22E361CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="2024.04.10" sheetId="49" r:id="rId29"/>
     <sheet name="2024.04.11" sheetId="50" r:id="rId30"/>
     <sheet name="2024.04.12" sheetId="51" r:id="rId31"/>
+    <sheet name="2024.04.13" sheetId="52" r:id="rId32"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="61">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +291,14 @@
   </si>
   <si>
     <t>파일질라에 바이러스 때문에 고민 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유기 문제로 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 받는 로직, 웹소켓 알림 구현 알림 넣는 로직은 미구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4227,7 +4236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EEC620-9C97-4D90-AD0D-800781D9C318}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -4305,6 +4314,153 @@
       </c>
       <c r="I5" s="11" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB97D10-6FBE-48CC-B90C-5C674EDD03ED}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F3D472-43CE-4A4E-AC32-B0D22E361CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AA20B-F594-4AC7-9080-E5FFAF68F353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="23" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <sheet name="2024.04.11" sheetId="50" r:id="rId30"/>
     <sheet name="2024.04.12" sheetId="51" r:id="rId31"/>
     <sheet name="2024.04.13" sheetId="52" r:id="rId32"/>
+    <sheet name="2024.04.14" sheetId="53" r:id="rId33"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="64">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +300,18 @@
   </si>
   <si>
     <t>알림 받는 로직, 웹소켓 알림 구현 알림 넣는 로직은 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 틀 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 통합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4385,7 +4398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB97D10-6FBE-48CC-B90C-5C674EDD03ED}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -4462,6 +4475,151 @@
       <c r="I5" s="11" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95125B7D-9542-4357-AA3D-86EA065362A8}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AA20B-F594-4AC7-9080-E5FFAF68F353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09A121-5D18-4198-9E2E-481D91C21304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="23" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="24" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="2024.04.12" sheetId="51" r:id="rId31"/>
     <sheet name="2024.04.13" sheetId="52" r:id="rId32"/>
     <sheet name="2024.04.14" sheetId="53" r:id="rId33"/>
+    <sheet name="2024.04.15" sheetId="54" r:id="rId34"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="64">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4545,7 +4546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95125B7D-9542-4357-AA3D-86EA065362A8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -4618,6 +4619,149 @@
       <c r="G5" s="13"/>
       <c r="H5" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A634B3CD-D7B4-42C8-8BC1-1F42B5469BF9}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="I5" s="11"/>
     </row>
